--- a/data/kl/MT/TWR-TH.xlsx
+++ b/data/kl/MT/TWR-TH.xlsx
@@ -51,6 +51,16 @@
     </r>
     <r>
       <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFDD0806"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">airport </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FFDD0806"/>
         <rFont val="Times New Roman"/>
@@ -3937,12 +3947,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -3968,18 +3978,33 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3990,15 +4015,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4013,14 +4040,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4035,94 +4129,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFDD0806"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4185,31 +4202,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,109 +4262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4341,13 +4286,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4359,7 +4346,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4388,6 +4405,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4398,6 +4433,32 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4414,24 +4475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4454,183 +4497,157 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4980,20 +4997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18.75" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="35.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="19.6666666666667" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -5015,7 +5025,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="31.5" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5028,7 +5038,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="31.5" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="31.5" spans="1:7">
+    <row r="5" ht="94.5" spans="1:7">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="31.5" spans="1:7">
+    <row r="6" ht="94.5" spans="1:7">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5097,7 +5107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="63" spans="1:7">
+    <row r="7" ht="126" spans="1:7">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:7">
+    <row r="8" ht="126" spans="1:7">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="31.5" spans="1:7">
+    <row r="9" ht="141.75" spans="1:7">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -5166,7 +5176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="47.25" spans="1:7">
+    <row r="10" ht="173.25" spans="1:7">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="31.5" spans="1:7">
+    <row r="11" ht="110.25" spans="1:7">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5212,7 +5222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="33.75" spans="1:7">
+    <row r="12" ht="78.75" spans="1:7">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5235,7 +5245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="33.75" spans="1:7">
+    <row r="13" ht="94.5" spans="1:7">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5258,7 +5268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" ht="78.75" spans="1:7">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5281,7 +5291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="78.75" spans="1:7">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -5304,7 +5314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="47.25" spans="1:7">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -5327,7 +5337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" ht="47.25" spans="1:7">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -5350,7 +5360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" ht="47.25" spans="1:7">
+    <row r="18" ht="110.25" spans="1:7">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" ht="31.5" spans="1:7">
+    <row r="19" ht="94.5" spans="1:7">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="47.25" spans="1:7">
+    <row r="20" ht="94.5" spans="1:7">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -5419,7 +5429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" ht="94.5" spans="1:7">
+    <row r="21" ht="220.5" spans="1:7">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -5442,7 +5452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="96.75" spans="1:7">
+    <row r="22" ht="222.75" spans="1:7">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -5465,7 +5475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="96.75" spans="1:7">
+    <row r="23" ht="222.75" spans="1:7">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -5488,7 +5498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" ht="47.25" spans="1:7">
+    <row r="24" ht="173.25" spans="1:7">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -5524,7 +5534,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" ht="31.5" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="63" spans="1:7">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -5570,7 +5580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" ht="47.25" spans="1:7">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -5593,7 +5603,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" ht="63" spans="1:7">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -5616,7 +5626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" ht="31.5" spans="1:7">
+    <row r="30" ht="141.75" spans="1:7">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" ht="63" spans="1:7">
+    <row r="31" ht="141.75" spans="1:7">
       <c r="A31" s="6">
         <v>5</v>
       </c>
@@ -5662,7 +5672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" ht="47.25" spans="1:7">
+    <row r="32" ht="173.25" spans="1:7">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" ht="47.25" spans="1:7">
+    <row r="33" ht="220.5" spans="1:7">
       <c r="A33" s="6">
         <v>7</v>
       </c>
@@ -5708,7 +5718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" ht="78.75" spans="1:7">
+    <row r="34" ht="362.25" spans="1:7">
       <c r="A34" s="6">
         <v>8</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" ht="47.25" spans="1:7">
+    <row r="35" ht="141.75" spans="1:7">
       <c r="A35" s="6">
         <v>9</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" ht="31.5" spans="1:7">
+    <row r="36" ht="78.75" spans="1:7">
       <c r="A36" s="6">
         <v>10</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="63" spans="1:7">
       <c r="A37" s="6">
         <v>11</v>
       </c>
@@ -5800,7 +5810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" ht="31.5" spans="1:7">
+    <row r="38" ht="141.75" spans="1:7">
       <c r="A38" s="6">
         <v>12</v>
       </c>
@@ -5823,7 +5833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" ht="78.75" spans="1:7">
+    <row r="39" ht="157.5" spans="1:7">
       <c r="A39" s="6">
         <v>13</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" ht="78.75" spans="1:7">
       <c r="A40" s="6">
         <v>14</v>
       </c>
@@ -5869,7 +5879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" ht="63" spans="1:7">
+    <row r="41" ht="126" spans="1:7">
       <c r="A41" s="6">
         <v>15</v>
       </c>
@@ -5892,7 +5902,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" ht="63" spans="1:7">
+    <row r="42" ht="236.25" spans="1:7">
       <c r="A42" s="6">
         <v>16</v>
       </c>
@@ -5915,7 +5925,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" ht="78.75" spans="1:7">
+    <row r="43" ht="220.5" spans="1:7">
       <c r="A43" s="6">
         <v>17</v>
       </c>
@@ -5938,7 +5948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" ht="78.75" spans="1:7">
+    <row r="44" ht="220.5" spans="1:7">
       <c r="A44" s="6">
         <v>18</v>
       </c>
@@ -5961,7 +5971,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" ht="31.5" spans="1:7">
+    <row r="45" ht="157.5" spans="1:7">
       <c r="A45" s="6">
         <v>19</v>
       </c>
@@ -5984,7 +5994,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" ht="31.5" spans="1:7">
+    <row r="46" ht="157.5" spans="1:7">
       <c r="A46" s="6">
         <v>20</v>
       </c>
@@ -6007,7 +6017,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" ht="31.5" spans="1:7">
+    <row r="47" ht="126" spans="1:7">
       <c r="A47" s="6">
         <v>21</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" ht="31.5" spans="1:7">
+    <row r="48" ht="126" spans="1:7">
       <c r="A48" s="6">
         <v>22</v>
       </c>
@@ -6053,7 +6063,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" ht="126" spans="1:7">
+    <row r="49" ht="267.75" spans="1:7">
       <c r="A49" s="6">
         <v>23</v>
       </c>
@@ -6076,7 +6086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" ht="47.25" spans="1:7">
+    <row r="50" ht="189" spans="1:7">
       <c r="A50" s="6">
         <v>24</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" ht="31.5" spans="1:7">
+    <row r="51" ht="110.25" spans="1:7">
       <c r="A51" s="6">
         <v>25</v>
       </c>
@@ -6122,7 +6132,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" ht="47.25" spans="1:7">
+    <row r="52" ht="157.5" spans="1:7">
       <c r="A52" s="6">
         <v>26</v>
       </c>
@@ -6145,7 +6155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" ht="47.25" spans="1:7">
+    <row r="53" ht="236.25" spans="1:7">
       <c r="A53" s="6">
         <v>27</v>
       </c>
@@ -6168,7 +6178,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" ht="31.5" spans="1:7">
+    <row r="54" ht="110.25" spans="1:7">
       <c r="A54" s="6">
         <v>28</v>
       </c>
@@ -6191,7 +6201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" ht="31.5" spans="1:7">
+    <row r="55" ht="141.75" spans="1:7">
       <c r="A55" s="6">
         <v>29</v>
       </c>
@@ -6214,7 +6224,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" ht="31.5" spans="1:7">
+    <row r="56" ht="141.75" spans="1:7">
       <c r="A56" s="6">
         <v>30</v>
       </c>
@@ -6237,7 +6247,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" ht="63" spans="1:7">
+    <row r="57" ht="220.5" spans="1:7">
       <c r="A57" s="6">
         <v>31</v>
       </c>
@@ -6260,7 +6270,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" ht="31.5" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>250</v>
       </c>
@@ -6273,7 +6283,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" ht="31.5" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
@@ -6296,7 +6306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" ht="31.5" spans="1:7">
+    <row r="60" ht="94.5" spans="1:7">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" ht="63" spans="1:7">
       <c r="A61" s="6">
         <v>2</v>
       </c>
@@ -6342,7 +6352,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" ht="31.5" spans="1:7">
+    <row r="62" ht="47.25" spans="1:7">
       <c r="A62" s="6">
         <v>3</v>
       </c>
@@ -6365,7 +6375,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" ht="31.5" spans="1:7">
+    <row r="63" ht="78.75" spans="1:7">
       <c r="A63" s="6">
         <v>4</v>
       </c>
@@ -6388,7 +6398,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" ht="31.5" spans="1:7">
+    <row r="64" ht="78.75" spans="1:7">
       <c r="A64" s="6">
         <v>5</v>
       </c>
@@ -6411,7 +6421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" ht="78.75" spans="1:7">
       <c r="A65" s="6">
         <v>6</v>
       </c>
@@ -6434,7 +6444,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" ht="31.5" spans="1:7">
+    <row r="66" ht="94.5" spans="1:7">
       <c r="A66" s="6">
         <v>7</v>
       </c>
@@ -6457,7 +6467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" ht="31.5" spans="1:7">
+    <row r="67" ht="157.5" spans="1:7">
       <c r="A67" s="6">
         <v>8</v>
       </c>
@@ -6480,7 +6490,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" ht="31.5" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>280</v>
       </c>
@@ -6493,7 +6503,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" ht="31.5" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>3</v>
       </c>
@@ -6516,7 +6526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" ht="63" spans="1:7">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -6539,7 +6549,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="71" ht="31.5" spans="1:7">
+    <row r="71" ht="94.5" spans="1:7">
       <c r="A71" s="6">
         <v>2</v>
       </c>
@@ -6562,7 +6572,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" ht="31.5" spans="1:7">
+    <row r="72" ht="157.5" spans="1:7">
       <c r="A72" s="6">
         <v>3</v>
       </c>
@@ -6585,7 +6595,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" ht="31.5" spans="1:7">
+    <row r="73" ht="94.5" spans="1:7">
       <c r="A73" s="6">
         <v>4</v>
       </c>
@@ -6608,7 +6618,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" ht="31.5" spans="1:7">
+    <row r="74" ht="94.5" spans="1:7">
       <c r="A74" s="6">
         <v>5</v>
       </c>
@@ -6644,7 +6654,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" ht="31.5" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -6667,7 +6677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" ht="33.75" spans="1:7">
+    <row r="77" ht="141.75" spans="1:7">
       <c r="A77" s="6">
         <v>1</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" ht="63" spans="1:7">
       <c r="A78" s="6">
         <v>2</v>
       </c>
@@ -6713,7 +6723,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" ht="63" spans="1:7">
       <c r="A79" s="6">
         <v>3</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" ht="94.5" spans="1:7">
       <c r="A80" s="6">
         <v>4</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" ht="94.5" spans="1:7">
       <c r="A81" s="6">
         <v>5</v>
       </c>
@@ -6782,7 +6792,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" ht="33.75" spans="1:7">
+    <row r="82" ht="126" spans="1:7">
       <c r="A82" s="6">
         <v>6</v>
       </c>
@@ -6805,7 +6815,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" ht="33.75" spans="1:7">
+    <row r="83" ht="141.75" spans="1:7">
       <c r="A83" s="6">
         <v>7</v>
       </c>
@@ -6828,7 +6838,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="84" ht="33.75" spans="1:7">
+    <row r="84" ht="141.75" spans="1:7">
       <c r="A84" s="6">
         <v>8</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" ht="31.5" spans="1:7">
+    <row r="85" ht="94.5" spans="1:7">
       <c r="A85" s="6">
         <v>9</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" ht="31.5" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>349</v>
       </c>
@@ -6887,7 +6897,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" ht="31.5" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>3</v>
       </c>
@@ -6910,7 +6920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" ht="47.25" spans="1:7">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" ht="47.25" spans="1:7">
+    <row r="89" ht="189" spans="1:7">
       <c r="A89" s="6">
         <v>2</v>
       </c>
@@ -6956,7 +6966,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" ht="78.75" spans="1:7">
       <c r="A90" s="6">
         <v>3</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" ht="78.75" spans="1:7">
       <c r="A91" s="6">
         <v>4</v>
       </c>
@@ -7002,7 +7012,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="92" ht="31.5" spans="1:7">
+    <row r="92" ht="157.5" spans="1:7">
       <c r="A92" s="6">
         <v>5</v>
       </c>
@@ -7025,7 +7035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" ht="31.5" spans="1:7">
+    <row r="93" ht="94.5" spans="1:7">
       <c r="A93" s="6">
         <v>6</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" ht="31.5" spans="1:7">
+    <row r="94" ht="94.5" spans="1:7">
       <c r="A94" s="6">
         <v>7</v>
       </c>
@@ -7071,7 +7081,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" ht="31.5" spans="1:7">
+    <row r="95" ht="94.5" spans="1:7">
       <c r="A95" s="6">
         <v>8</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="96" ht="189" spans="1:7">
+    <row r="96" ht="409.5" spans="1:7">
       <c r="A96" s="6">
         <v>9</v>
       </c>
@@ -7117,7 +7127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" ht="173.25" spans="1:7">
+    <row r="97" ht="409.5" spans="1:7">
       <c r="A97" s="6">
         <v>10</v>
       </c>
@@ -7140,7 +7150,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" ht="31.5" spans="1:7">
+    <row r="98" ht="110.25" spans="1:7">
       <c r="A98" s="6">
         <v>11</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="99" ht="31.5" spans="1:7">
+    <row r="99" ht="110.25" spans="1:7">
       <c r="A99" s="6">
         <v>12</v>
       </c>
@@ -7186,7 +7196,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" ht="31.5" spans="1:7">
+    <row r="100" ht="78.75" spans="1:7">
       <c r="A100" s="6">
         <v>13</v>
       </c>
@@ -7209,7 +7219,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="101" ht="31.5" spans="1:7">
+    <row r="101" ht="94.5" spans="1:7">
       <c r="A101" s="6">
         <v>14</v>
       </c>
@@ -7232,7 +7242,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" ht="31.5" spans="1:7">
+    <row r="102" ht="94.5" spans="1:7">
       <c r="A102" s="6">
         <v>15</v>
       </c>
@@ -7255,7 +7265,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" ht="31.5" spans="1:7">
+    <row r="103" ht="94.5" spans="1:7">
       <c r="A103" s="6">
         <v>16</v>
       </c>
@@ -7278,7 +7288,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" ht="141.75" spans="1:7">
+    <row r="104" ht="362.25" spans="1:7">
       <c r="A104" s="6">
         <v>17</v>
       </c>
@@ -7301,7 +7311,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="105" ht="173.25" spans="1:7">
+    <row r="105" ht="409.5" spans="1:7">
       <c r="A105" s="6">
         <v>18</v>
       </c>
@@ -7324,7 +7334,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="106" ht="94.5" spans="1:7">
+    <row r="106" ht="236.25" spans="1:7">
       <c r="A106" s="6">
         <v>19</v>
       </c>
@@ -7347,7 +7357,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="107" ht="157.5" spans="1:7">
+    <row r="107" ht="409.5" spans="1:7">
       <c r="A107" s="6">
         <v>20</v>
       </c>
@@ -7370,7 +7380,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" ht="47.25" spans="1:7">
+    <row r="108" ht="157.5" spans="1:7">
       <c r="A108" s="6">
         <v>21</v>
       </c>
@@ -7393,7 +7403,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="109" ht="47.25" spans="1:7">
+    <row r="109" ht="157.5" spans="1:7">
       <c r="A109" s="6">
         <v>22</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" ht="78.75" spans="1:7">
       <c r="A110" s="6">
         <v>23</v>
       </c>
@@ -7439,899 +7449,871 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" ht="47.25" spans="1:7">
-      <c r="A111" s="6">
+    <row r="111" spans="1:7">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" ht="126" spans="1:7">
+      <c r="A112" s="6">
         <v>24</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C112" s="6">
         <v>2</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="112" ht="47.25" spans="1:7">
-      <c r="A112" s="6">
+    <row r="113" ht="173.25" spans="1:7">
+      <c r="A113" s="6">
         <v>25</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C113" s="6">
         <v>3</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D113" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F113" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G113" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" ht="31.5" spans="1:7">
-      <c r="A113" s="6">
+    <row r="114" ht="110.25" spans="1:7">
+      <c r="A114" s="6">
         <v>26</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="C113" s="6">
-        <v>4</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="114" ht="47.25" spans="1:7">
-      <c r="A114" s="6">
-        <v>27</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="C114" s="6">
         <v>4</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="115" ht="31.5" spans="1:7">
-      <c r="A115" s="6">
-        <v>28</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C115" s="6">
-        <v>4</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="116" ht="78.75" spans="1:7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" ht="110.25" spans="1:7">
       <c r="A116" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C116" s="6">
         <v>4</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" ht="47.25" spans="1:7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" ht="78.75" spans="1:7">
       <c r="A117" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C117" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="118" ht="31.5" spans="1:7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" ht="204.75" spans="1:7">
       <c r="A118" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C118" s="6">
         <v>4</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" ht="110.25" spans="1:7">
+      <c r="A119" s="6">
+        <v>30</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C119" s="6">
+        <v>3</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" ht="94.5" spans="1:7">
+      <c r="A120" s="6">
+        <v>31</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C120" s="6">
+        <v>4</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F120" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="119" ht="78.75" spans="1:7">
-      <c r="A119" s="6">
+    <row r="121" ht="204.75" spans="1:7">
+      <c r="A121" s="6">
         <v>32</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="C119" s="6">
-        <v>4</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="6">
-        <v>33</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C120" s="6">
-        <v>1</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="121" ht="47.25" spans="1:7">
-      <c r="A121" s="6">
-        <v>34</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="C121" s="6">
         <v>4</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122" ht="126" spans="1:7">
+    <row r="122" ht="78.75" spans="1:7">
       <c r="A122" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C122" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="123" ht="126" spans="1:7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="123" ht="94.5" spans="1:7">
       <c r="A123" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C123" s="6">
         <v>4</v>
       </c>
       <c r="D123" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" ht="346.5" spans="1:7">
+      <c r="A124" s="6">
+        <v>35</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C124" s="6">
+        <v>4</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="125" ht="330.75" spans="1:7">
+      <c r="A125" s="6">
+        <v>36</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C125" s="6">
+        <v>4</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F125" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="G125" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="124" ht="63" spans="1:7">
-      <c r="A124" s="6">
+    <row r="126" ht="283.5" spans="1:7">
+      <c r="A126" s="6">
         <v>37</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C126" s="6">
         <v>2</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="125" ht="31.5" spans="1:7">
-      <c r="A125" s="6">
+    <row r="127" ht="94.5" spans="1:7">
+      <c r="A127" s="6">
         <v>38</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="C125" s="6">
-        <v>1</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" ht="31.5" spans="1:7">
-      <c r="A126" s="6">
-        <v>39</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C126" s="6">
-        <v>1</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="127" ht="47.25" spans="1:7">
-      <c r="A127" s="6">
-        <v>40</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="C127" s="6">
         <v>1</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="128" ht="47.25" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" ht="173.25" spans="1:7">
       <c r="A128" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C128" s="6">
         <v>1</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" ht="220.5" spans="1:7">
+      <c r="A129" s="6">
+        <v>40</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" ht="189" spans="1:7">
+      <c r="A130" s="6">
+        <v>41</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F130" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="G128" s="6" t="s">
+      <c r="G130" s="6" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="129" ht="47.25" spans="1:7">
-      <c r="A129" s="6">
+    <row r="131" ht="189" spans="1:7">
+      <c r="A131" s="6">
         <v>42</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="C129" s="6">
-        <v>3</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="130" ht="47.25" spans="1:7">
-      <c r="A130" s="6">
-        <v>43</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C130" s="6">
-        <v>3</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="131" ht="47.25" spans="1:7">
-      <c r="A131" s="6">
-        <v>44</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="C131" s="6">
         <v>3</v>
       </c>
       <c r="D131" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="132" ht="189" spans="1:7">
+      <c r="A132" s="6">
+        <v>43</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C132" s="6">
+        <v>3</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="133" ht="189" spans="1:7">
+      <c r="A133" s="6">
+        <v>44</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C133" s="6">
+        <v>3</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="132" ht="47.25" spans="1:7">
-      <c r="A132" s="6">
-        <v>45</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C132" s="6">
-        <v>4</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="133" ht="47.25" spans="1:7">
-      <c r="A133" s="6">
-        <v>46</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C133" s="6">
-        <v>1</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>544</v>
       </c>
       <c r="F133" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" ht="204.75" spans="1:7">
+      <c r="A134" s="6">
+        <v>45</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C134" s="6">
+        <v>4</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="135" ht="204.75" spans="1:7">
+      <c r="A135" s="6">
+        <v>46</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F135" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="G135" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="134" ht="31.5" spans="1:7">
-      <c r="A134" s="6">
+    <row r="136" ht="78.75" spans="1:7">
+      <c r="A136" s="6">
         <v>47</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="C134" s="6">
-        <v>1</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="135" ht="31.5" spans="1:7">
-      <c r="A135" s="6">
-        <v>48</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C135" s="6">
-        <v>4</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="136" ht="47.25" spans="1:7">
-      <c r="A136" s="6">
-        <v>49</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="C136" s="6">
         <v>1</v>
       </c>
       <c r="D136" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="137" ht="78.75" spans="1:7">
+      <c r="A137" s="6">
+        <v>48</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C137" s="6">
+        <v>4</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="138" ht="157.5" spans="1:7">
+      <c r="A138" s="6">
+        <v>49</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F138" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="G138" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="137" ht="126" spans="1:7">
-      <c r="A137" s="6">
+    <row r="139" ht="299.25" spans="1:7">
+      <c r="A139" s="6">
         <v>50</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C139" s="6">
         <v>1</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D139" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F139" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="G137" s="6" t="s">
+      <c r="G139" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="138" ht="63" spans="1:7">
-      <c r="A138" s="6">
+    <row r="140" ht="126" spans="1:7">
+      <c r="A140" s="6">
         <v>51</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B140" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C140" s="6">
         <v>2</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D140" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="F140" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="G138" s="6" t="s">
+      <c r="G140" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="139" ht="63" spans="1:7">
-      <c r="A139" s="6">
+    <row r="141" ht="189" spans="1:7">
+      <c r="A141" s="6">
         <v>52</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C141" s="6">
         <v>3</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D141" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F141" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G139" s="6" t="s">
+      <c r="G141" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="140" ht="31.5" spans="1:7">
-      <c r="A140" s="6">
+    <row r="142" ht="94.5" spans="1:7">
+      <c r="A142" s="6">
         <v>53</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B142" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C142" s="6">
         <v>1</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D142" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E142" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F142" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="6" t="s">
+    <row r="143" ht="31.5" spans="1:7">
+      <c r="A143" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B143" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="6" t="s">
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" ht="31.5" spans="1:7">
+      <c r="A144" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D144" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E144" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F144" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" ht="31.5" spans="1:7">
-      <c r="A143" s="6">
+    <row r="145" ht="157.5" spans="1:7">
+      <c r="A145" s="6">
         <v>1</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B145" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="C143" s="6">
-        <v>1</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="144" ht="31.5" spans="1:7">
-      <c r="A144" s="6">
-        <v>2</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C144" s="6">
-        <v>2</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="145" ht="47.25" spans="1:7">
-      <c r="A145" s="6">
-        <v>3</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C145" s="6">
         <v>1</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="146" ht="31.5" spans="1:7">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="146" ht="157.5" spans="1:7">
       <c r="A146" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C146" s="6">
         <v>2</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="147" ht="31.5" spans="1:7">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="147" ht="173.25" spans="1:7">
       <c r="A147" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C147" s="6">
         <v>1</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="148" ht="31.5" spans="1:7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="148" ht="157.5" spans="1:7">
       <c r="A148" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C148" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="149" ht="47.25" spans="1:7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="149" ht="126" spans="1:7">
       <c r="A149" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C149" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>595</v>
       </c>
       <c r="E149" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="150" ht="31.5" spans="1:7">
+    </row>
+    <row r="150" ht="126" spans="1:7">
       <c r="A150" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C150" s="6">
         <v>3</v>
@@ -8340,1301 +8322,1347 @@
         <v>595</v>
       </c>
       <c r="E150" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F150" s="6" t="s">
+    </row>
+    <row r="151" ht="173.25" spans="1:7">
+      <c r="A151" s="6">
+        <v>7</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C151" s="6">
+        <v>3</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="F151" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="G150" s="6" t="s">
+      <c r="G151" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="151" ht="31.5" spans="1:7">
-      <c r="A151" s="6">
-        <v>9</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C151" s="6">
-        <v>1</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="152" ht="78.75" spans="1:7">
+    <row r="152" ht="126" spans="1:7">
       <c r="A152" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C152" s="6">
         <v>3</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="153" ht="31.5" spans="1:7">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="153" ht="94.5" spans="1:7">
       <c r="A153" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C153" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D153" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="F153" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="G153" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="154" ht="47.25" spans="1:7">
+    </row>
+    <row r="154" ht="157.5" spans="1:7">
       <c r="A154" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C154" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>607</v>
       </c>
       <c r="E154" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" ht="94.5" spans="1:7">
+      <c r="A155" s="6">
+        <v>11</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" s="6">
+        <v>4</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="156" ht="94.5" spans="1:7">
+      <c r="A156" s="6">
+        <v>12</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C156" s="6">
+        <v>2</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F156" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="G154" s="6" t="s">
+      <c r="G156" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="6">
+    <row r="157" ht="63" spans="1:7">
+      <c r="A157" s="6">
         <v>13</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B157" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C157" s="6">
         <v>2</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F157" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="G155" s="6" t="s">
+      <c r="G157" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="6">
+    <row r="158" ht="78.75" spans="1:7">
+      <c r="A158" s="6">
         <v>14</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C158" s="6">
         <v>4</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F158" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="G156" s="6" t="s">
+      <c r="G158" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="6">
+    <row r="159" ht="94.5" spans="1:7">
+      <c r="A159" s="6">
         <v>15</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C159" s="6">
         <v>3</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="F159" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="G157" s="6" t="s">
+      <c r="G159" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="158" ht="31.5" spans="1:7">
-      <c r="A158" s="6">
+    <row r="160" ht="126" spans="1:7">
+      <c r="A160" s="6">
         <v>16</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="C158" s="6">
-        <v>1</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="159" ht="31.5" spans="1:7">
-      <c r="A159" s="6">
-        <v>17</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C159" s="6">
-        <v>4</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="160" ht="47.25" spans="1:7">
-      <c r="A160" s="6">
-        <v>18</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>635</v>
       </c>
       <c r="C160" s="6">
         <v>1</v>
       </c>
       <c r="D160" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" ht="157.5" spans="1:7">
+      <c r="A161" s="6">
+        <v>17</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C161" s="6">
+        <v>4</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="162" ht="157.5" spans="1:7">
+      <c r="A162" s="6">
+        <v>18</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C162" s="6">
+        <v>1</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F162" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="G160" s="6" t="s">
+      <c r="G162" s="6" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="161" ht="47.25" spans="1:7">
-      <c r="A161" s="6">
+    <row r="163" ht="220.5" spans="1:7">
+      <c r="A163" s="6">
         <v>19</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B163" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C163" s="6">
         <v>3</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D163" s="6">
         <v>6</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E163" s="6">
         <v>5</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F163" s="6">
         <v>4</v>
       </c>
-      <c r="G161" s="6" t="s">
+      <c r="G163" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="162" ht="47.25" spans="1:7">
-      <c r="A162" s="6">
+    <row r="164" ht="267.75" spans="1:7">
+      <c r="A164" s="6">
         <v>20</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C164" s="6">
         <v>4</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D164" s="6">
         <v>12</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E164" s="6">
         <v>11</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F164" s="6">
         <v>10</v>
       </c>
-      <c r="G162" s="6">
+      <c r="G164" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="163" ht="31.5" spans="1:7">
-      <c r="A163" s="6">
+    <row r="165" ht="126" spans="1:7">
+      <c r="A165" s="6">
         <v>21</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C165" s="6">
         <v>1</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D165" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F165" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="G163" s="6" t="s">
+      <c r="G165" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="6" t="s">
+    <row r="166" ht="31.5" spans="1:7">
+      <c r="A166" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="6" t="s">
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" ht="31.5" spans="1:7">
+      <c r="A167" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D167" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F167" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" ht="47.25" spans="1:7">
-      <c r="A166" s="6">
+    <row r="168" ht="173.25" spans="1:7">
+      <c r="A168" s="6">
         <v>1</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C168" s="6">
         <v>3</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F168" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="G166" s="6" t="s">
+      <c r="G168" s="6" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="167" ht="31.5" spans="1:7">
-      <c r="A167" s="6">
+    <row r="169" ht="78.75" spans="1:7">
+      <c r="A169" s="6">
         <v>2</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="C167" s="6">
-        <v>4</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="168" ht="31.5" spans="1:7">
-      <c r="A168" s="6">
-        <v>3</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C168" s="6">
-        <v>1</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="169" ht="47.25" spans="1:7">
-      <c r="A169" s="6">
-        <v>4</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="C169" s="6">
         <v>4</v>
       </c>
       <c r="D169" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="170" ht="94.5" spans="1:7">
+      <c r="A170" s="6">
+        <v>3</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C170" s="6">
+        <v>1</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" ht="110.25" spans="1:7">
+      <c r="A171" s="6">
+        <v>4</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C171" s="6">
+        <v>4</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="F171" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="G169" s="6" t="s">
+      <c r="G171" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="170" ht="47.25" spans="1:7">
-      <c r="A170" s="6">
+    <row r="172" ht="157.5" spans="1:7">
+      <c r="A172" s="6">
         <v>5</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="C170" s="6">
-        <v>4</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="171" ht="31.5" spans="1:7">
-      <c r="A171" s="6">
-        <v>6</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C171" s="6">
-        <v>3</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="172" ht="31.5" spans="1:7">
-      <c r="A172" s="6">
-        <v>7</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="C172" s="6">
         <v>4</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="173" ht="31.5" spans="1:7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="173" ht="126" spans="1:7">
       <c r="A173" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C173" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="174" ht="31.5" spans="1:7">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="174" ht="173.25" spans="1:7">
       <c r="A174" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C174" s="6">
         <v>4</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="175" ht="47.25" spans="1:7">
+    <row r="175" ht="110.25" spans="1:7">
       <c r="A175" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C175" s="6">
         <v>4</v>
       </c>
       <c r="D175" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="176" ht="110.25" spans="1:7">
+      <c r="A176" s="6">
+        <v>9</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C176" s="6">
+        <v>4</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" ht="126" spans="1:7">
+      <c r="A177" s="6">
+        <v>10</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C177" s="6">
+        <v>4</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E177" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F177" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="G175" s="6" t="s">
+      <c r="G177" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="6" t="s">
+    <row r="178" spans="1:7">
+      <c r="A178" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B178" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="6" t="s">
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" ht="31.5" spans="1:7">
+      <c r="A179" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B179" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D179" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E179" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F179" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G177" s="6" t="s">
+      <c r="G179" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="6">
+    <row r="180" ht="94.5" spans="1:7">
+      <c r="A180" s="6">
         <v>1</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B180" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="C178" s="6">
-        <v>1</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="6">
-        <v>2</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C179" s="6">
-        <v>3</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="180" ht="31.5" spans="1:7">
-      <c r="A180" s="6">
-        <v>3</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="C180" s="6">
         <v>1</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="181" ht="31.5" spans="1:7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="181" ht="63" spans="1:7">
       <c r="A181" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C181" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="182" ht="31.5" spans="1:7">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="182" ht="126" spans="1:7">
       <c r="A182" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C182" s="6">
         <v>1</v>
       </c>
       <c r="D182" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="183" ht="94.5" spans="1:7">
+      <c r="A183" s="6">
+        <v>4</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C183" s="6">
+        <v>4</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="184" ht="78.75" spans="1:7">
+      <c r="A184" s="6">
+        <v>5</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C184" s="6">
+        <v>1</v>
+      </c>
+      <c r="D184" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E184" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="F184" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="G182" s="6" t="s">
+      <c r="G184" s="6" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="6">
+    <row r="185" ht="94.5" spans="1:7">
+      <c r="A185" s="6">
         <v>6</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B185" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="C183" s="6">
-        <v>1</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="184" ht="31.5" spans="1:7">
-      <c r="A184" s="6">
-        <v>7</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C184" s="6">
-        <v>4</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="6">
-        <v>8</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="C185" s="6">
         <v>1</v>
       </c>
       <c r="D185" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" ht="94.5" spans="1:7">
+      <c r="A186" s="6">
+        <v>7</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C186" s="6">
+        <v>4</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="187" ht="63" spans="1:7">
+      <c r="A187" s="6">
+        <v>8</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C187" s="6">
+        <v>1</v>
+      </c>
+      <c r="D187" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F187" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="G185" s="6" t="s">
+      <c r="G187" s="6" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="186" ht="31.5" spans="1:7">
-      <c r="A186" s="6">
+    <row r="188" ht="94.5" spans="1:7">
+      <c r="A188" s="6">
         <v>9</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B188" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="C186" s="6">
-        <v>1</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="187" ht="31.5" spans="1:7">
-      <c r="A187" s="6">
-        <v>10</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="C187" s="6">
-        <v>3</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="6">
-        <v>11</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="C188" s="6">
         <v>1</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E188" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="F188" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="F188" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="G188" s="6"/>
-    </row>
-    <row r="189" ht="31.5" spans="1:7">
+      <c r="G188" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="189" ht="94.5" spans="1:7">
       <c r="A189" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C189" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>644</v>
+        <v>735</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="190" ht="63" spans="1:7">
       <c r="A190" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C190" s="6">
         <v>1</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>414</v>
+        <v>744</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>745</v>
+      </c>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" ht="110.25" spans="1:7">
       <c r="A191" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C191" s="6">
         <v>1</v>
       </c>
       <c r="D191" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="192" ht="78.75" spans="1:7">
+      <c r="A192" s="6">
+        <v>13</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C192" s="6">
+        <v>1</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="193" ht="63" spans="1:7">
+      <c r="A193" s="6">
+        <v>14</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C193" s="6">
+        <v>1</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E193" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F193" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="G191" s="6" t="s">
+      <c r="G193" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="192" ht="99" spans="1:7">
-      <c r="A192" s="6">
+    <row r="194" ht="240.75" spans="1:7">
+      <c r="A194" s="6">
         <v>15</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C194" s="6">
         <v>3</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D194" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E194" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F194" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="G192" s="6" t="s">
+      <c r="G194" s="6" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="193" ht="67.5" spans="1:7">
-      <c r="A193" s="6">
+    <row r="195" ht="177.75" spans="1:7">
+      <c r="A195" s="6">
         <v>16</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="C193" s="6">
-        <v>2</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="194" ht="31.5" spans="1:7">
-      <c r="A194" s="6">
-        <v>17</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C194" s="6">
-        <v>1</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="195" ht="31.5" spans="1:7">
-      <c r="A195" s="6">
-        <v>18</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="C195" s="6">
         <v>2</v>
       </c>
       <c r="D195" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="196" ht="157.5" spans="1:7">
+      <c r="A196" s="6">
+        <v>17</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C196" s="6">
+        <v>1</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="197" ht="141.75" spans="1:7">
+      <c r="A197" s="6">
+        <v>18</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C197" s="6">
+        <v>2</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="196" ht="31.5" spans="1:7">
-      <c r="A196" s="6">
-        <v>19</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="C196" s="6">
-        <v>3</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="197" ht="31.5" spans="1:7">
-      <c r="A197" s="6">
-        <v>20</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="C197" s="6">
-        <v>3</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>765</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>768</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="198" ht="31.5" spans="1:7">
+    <row r="198" ht="141.75" spans="1:7">
       <c r="A198" s="6">
+        <v>19</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C198" s="6">
+        <v>3</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="199" ht="157.5" spans="1:7">
+      <c r="A199" s="6">
+        <v>20</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C199" s="6">
+        <v>3</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="200" ht="141.75" spans="1:7">
+      <c r="A200" s="6">
         <v>21</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B200" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C200" s="6">
         <v>4</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D200" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E200" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="F200" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="G198" s="6" t="s">
+      <c r="G200" s="6" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="199" ht="31.5" spans="1:7">
-      <c r="A199" s="6">
+    <row r="201" ht="141.75" spans="1:7">
+      <c r="A201" s="6">
         <v>22</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B201" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C201" s="6">
         <v>2</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D201" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="F201" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="G199" s="6" t="s">
+      <c r="G201" s="6" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="200" ht="31.5" spans="1:7">
-      <c r="A200" s="6">
+    <row r="202" ht="141.75" spans="1:7">
+      <c r="A202" s="6">
         <v>23</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B202" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C202" s="6">
         <v>3</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D202" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E202" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="F202" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="G200" s="6" t="s">
+      <c r="G202" s="6" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="201" ht="31.5" spans="1:7">
-      <c r="A201" s="6">
+    <row r="203" ht="126" spans="1:7">
+      <c r="A203" s="6">
         <v>24</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C203" s="6">
         <v>3</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D203" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E203" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="F203" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="G201" s="6" t="s">
+      <c r="G203" s="6" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="202" ht="31.5" spans="1:7">
-      <c r="A202" s="6">
+    <row r="204" ht="126" spans="1:7">
+      <c r="A204" s="6">
         <v>25</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B204" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C204" s="6">
         <v>4</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D204" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E204" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="F204" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="G202" s="6" t="s">
+      <c r="G204" s="6" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="203" ht="31.5" spans="1:7">
-      <c r="A203" s="6">
+    <row r="205" ht="94.5" spans="1:7">
+      <c r="A205" s="6">
         <v>26</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B205" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C205" s="6">
         <v>4</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D205" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E205" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="F205" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="G203" s="6" t="s">
+      <c r="G205" s="6" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="6">
+    <row r="206" ht="63" spans="1:7">
+      <c r="A206" s="6">
         <v>27</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B206" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C206" s="6">
         <v>3</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D206" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E206" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F206" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="G204" s="6" t="s">
+      <c r="G206" s="6" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="205" ht="31.5" spans="1:7">
-      <c r="A205" s="6">
+    <row r="207" ht="126" spans="1:7">
+      <c r="A207" s="6">
         <v>28</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B207" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C207" s="6">
         <v>3</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D207" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E207" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="F207" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="G205" s="6" t="s">
+      <c r="G207" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="6">
+    <row r="208" ht="63" spans="1:7">
+      <c r="A208" s="6">
         <v>29</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B208" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C208" s="6">
         <v>2</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D208" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="F208" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="G206" s="6" t="s">
+      <c r="G208" s="6" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="6">
+    <row r="209" ht="63" spans="1:7">
+      <c r="A209" s="6">
         <v>30</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B209" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C209" s="6">
         <v>4</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E209" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F209" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="G207" s="6" t="s">
+      <c r="G209" s="6" t="s">
         <v>817</v>
       </c>
     </row>
